--- a/biology/Histoire de la zoologie et de la botanique/Emmanuelle_Grundmann/Emmanuelle_Grundmann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emmanuelle_Grundmann/Emmanuelle_Grundmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuelle Grundmann, née le 1er mars 1973[1] est une biologiste, naturaliste[2] et reporter animalière française, spécialiste de la protection et de la réintroduction des grands singes en Afrique et en Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuelle Grundmann, née le 1er mars 1973 est une biologiste, naturaliste et reporter animalière française, spécialiste de la protection et de la réintroduction des grands singes en Afrique et en Asie.
 Elle est présidente de l'Association Awely, qui cherche à diminuer les conflits entre les hommes et les animaux partout dans le monde.
 </t>
         </is>
